--- a/Информатика готовность Глеба.xlsx
+++ b/Информатика готовность Глеба.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862CF2E7-C114-42C2-B255-1597E4D0F30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F607A8D2-84E4-4820-89CA-EF60884D00A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7515" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Моя готовность 04.09.2024" sheetId="1" r:id="rId1"/>
@@ -738,35 +738,6 @@
   </si>
   <si>
     <t>Новая табличка</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def f(x, y): # x - start, y - end
-    if x &gt; y or x == 15: # x == 15 - запретное значение
-        return 0
-    if x == y: # найден путь в финал
-        return 1
-    else: # все способы смещения
-        return f(x+1, y) + f(x+2, y) + f(x * 3, y)
-# * - для посещения обязательного пункта
-print(f(1, 11) * f(11, 25)) # 22605
-ВОЗМОЖЕН ОСОБЫЙ СЛУЧАЙ:
-from functools import lru_cache
-@lru_cache()
-def ...
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Что такой случай позволяет обрабатывать?</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1584,6 +1555,140 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">def f(x, y): </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t># x - start, y - end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+    if x &gt; y or x == 15: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t># x == 15 - запретное значение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+        return 0
+    if x == y:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> # найден путь в финал</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+        return 1
+    else: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t># все способы смещения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+        return f(x+1, y) + f(x+2, y) + f(x * 3, y)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t># * - для посещения обязательного пункта</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+print(f(1, 11) * f(11, 25)) # 22605
+ВОЗМОЖЕН ОСОБЫЙ СЛУЧАЙ:
+from functools import lru_cache
+@lru_cache()
+def ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Что такой случай позволяет обрабатывать?</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"># s - тек. кол камней
 # m - номер хода
 # a, b - кол. камней в кучах
@@ -1609,16 +1714,100 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
-    # усл. победы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    # усл. победы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
     if a + b &gt;= 77:
         return m%2 == 0
-    # усл. выхода
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    # усл. выхода</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
     if m == 0:
         return 0
-    # Рассчитать все варианты ходов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    # Рассчитать все варианты ходов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
     h = [f(a+1, b, m-1), f(a, b+1, m-1), f(a*2, b, m-1), f(a, b*2, m-1)]
-    # Ваня выиграл своим 1ым ходом после НЕУДАЧНОГО 1ого хода Пети
-    return any(h) if (m-1 %2) == 0 else all(h) # Неудачного, значит нужно заменить </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    # Ваня выиграл своим 1ым ходом после НЕУДАЧНОГО 1ого хода Пети</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+    return any(h) if (m-1) %2 == 0 else all(h) # Неудачного, значит нужно заменить </t>
     </r>
     <r>
       <rPr>
@@ -1738,7 +1927,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1889,6 +2078,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2188,6 +2385,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2202,12 +2405,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2503,9 +2700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20:E22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2540,15 +2737,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="38" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2701,7 +2898,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="23"/>
@@ -2721,7 +2918,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="23"/>
@@ -2801,7 +2998,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2821,13 +3018,13 @@
         <v>31</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -2845,11 +3042,11 @@
         <v>33</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -2928,7 +3125,7 @@
       <c r="D20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="39" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2952,7 +3149,7 @@
       <c r="D21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="38"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="6" t="s">
         <v>42</v>
       </c>
@@ -2974,7 +3171,7 @@
       <c r="D22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="6" t="s">
         <v>42</v>
       </c>
@@ -3022,7 +3219,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="23"/>
@@ -3042,7 +3239,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="6"/>
       <c r="H25" s="4">
@@ -3061,7 +3258,7 @@
         <v>51</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3074,16 +3271,16 @@
     </row>
     <row r="27" spans="2:10" ht="15.75" customHeight="1">
       <c r="B27" s="1"/>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
     </row>
     <row r="28" spans="2:10" ht="409.5">
       <c r="B28" s="1">
@@ -3094,13 +3291,13 @@
         <v>53</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>

--- a/Информатика готовность Глеба.xlsx
+++ b/Информатика готовность Глеба.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F607A8D2-84E4-4820-89CA-EF60884D00A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868C85A-4DF1-4E13-AD29-4C67EA4CB2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-7515" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Моя готовность 04.09.2024" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>Номер</t>
   </si>
@@ -149,32 +149,6 @@
   <si>
     <t>Алг. перевода N в
 R с изменениями</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Просто кодить.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> or N in range(1, 1000):
-*Иногда требуется перевести число в произвольную СС. Тогда bin не поможет.
-Нужно писать собственную функцию перевода числа</t>
-    </r>
   </si>
   <si>
     <t>Черепаха</t>
@@ -438,29 +412,6 @@
   </si>
   <si>
     <t xml:space="preserve">Рекурсия. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Просто кодить. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Это обычная рекурсия</t>
-    </r>
   </si>
   <si>
     <t>txt поиск пар и
@@ -1922,12 +1873,135 @@
       <t># нет гарантированного =&gt; not ОСТАЁТСЯ!</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># Принцип перевода в маленькую с.с.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+def dec_to_4(n):
+    res = ''
+    while n &gt; 0:
+        res = str(n % 4) + res
+        n //= 4
+    return res
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># Принцип перевода в большую с.с.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+def dec_to_27(n):
+    res = []
+    while n &gt; 0:
+        res.append(n % 27)
+        n //= 27
+    return res</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Просто кодить.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> or N in range(1, 1000):
+*Иногда требуется перевести число в произвольную СС. Тогда bin не поможет.
+Нужно писать собственную функцию перевода числа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Просто кодить. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Это обычная рекурсия</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ВОЗМОЖЕН ОСОБЫЙ СЛУЧАЙ:
+from functools import lru_cache
+@lru_cache()
+def F(n):</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2086,6 +2160,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2299,7 +2380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2405,6 +2486,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2700,9 +2784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2737,7 +2821,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H1" s="37" t="s">
         <v>5</v>
@@ -2829,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="75">
+    <row r="6" spans="2:10" ht="225">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -2837,11 +2921,13 @@
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>17</v>
+      <c r="E6" s="45" t="s">
+        <v>81</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
@@ -2855,10 +2941,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="23"/>
@@ -2875,10 +2961,10 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="23"/>
@@ -2895,10 +2981,10 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="23"/>
@@ -2915,10 +3001,10 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="23"/>
@@ -2935,10 +3021,10 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>24</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>25</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="28"/>
@@ -2955,10 +3041,10 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="28"/>
@@ -2975,10 +3061,10 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>29</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2995,10 +3081,10 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3015,16 +3101,16 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="G15" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -3039,14 +3125,14 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -3055,16 +3141,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" ht="90">
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="23"/>
@@ -3081,14 +3167,14 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -3103,10 +3189,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3123,16 +3209,16 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -3147,14 +3233,14 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -3169,14 +3255,14 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -3191,14 +3277,14 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H23" s="4">
         <v>0.5</v>
@@ -3207,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="258" customHeight="1">
@@ -3216,10 +3302,10 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="23"/>
@@ -3236,10 +3322,10 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="6"/>
       <c r="H25" s="4">
@@ -3255,10 +3341,10 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3272,7 +3358,7 @@
     <row r="27" spans="2:10" ht="15.75" customHeight="1">
       <c r="B27" s="1"/>
       <c r="C27" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -3288,16 +3374,16 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
@@ -3312,14 +3398,14 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -3331,7 +3417,7 @@
     <row r="30" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="31" spans="2:10" ht="15.75" customHeight="1">
       <c r="G31" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H31" s="10">
         <f>SUM(H2:H29)</f>
@@ -3340,7 +3426,7 @@
     </row>
     <row r="32" spans="2:10" ht="15.75" customHeight="1">
       <c r="G32" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H32" s="11">
         <v>88</v>
@@ -3353,26 +3439,26 @@
     <row r="34" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
       <c r="E35" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
       <c r="E36" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
       <c r="E37" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="39" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
       <c r="E40" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1"/>
@@ -4359,13 +4445,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4376,7 +4462,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4395,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">

--- a/Информатика готовность Глеба.xlsx
+++ b/Информатика готовность Глеба.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868C85A-4DF1-4E13-AD29-4C67EA4CB2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C3A385-C449-475E-881D-A44998883F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7515" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Моя готовность 04.09.2024" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Номер</t>
   </si>
@@ -1994,6 +1994,156 @@
 from functools import lru_cache
 @lru_cache()
 def F(n):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Вариация найти макс. Последовательность содержащую = 3 буквы А
+# Составить список индексов буквы А
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">f = open('24var05.txt')
+line = f.readline()
+f.close()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# Список индексов A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A_indexes = []
+for i in range(len(line)):
+    if line[i] == "A":
+        A_indexes.append(i)
+max_seq_len = 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># Проходим по списку индексов А</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+for i in range(len(A_indexes) - 4):
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># Найдём индексы начала и конца каждой последовательности</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>содержащей 3 А</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    start_index = A_indexes[i] + 1
+    end_index = A_indexes[i + 4] - 1
+    cur_seq_len = end_index - start_index + 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># +1, т.к. длина на 1 больше разницы индексов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    max_seq_len = max(max_seq_len, cur_seq_len)
+print(max_seq_len) #501</t>
     </r>
   </si>
 </sst>
@@ -2380,7 +2530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2472,6 +2622,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2486,8 +2639,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2784,9 +2937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2921,7 +3074,7 @@
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="39" t="s">
         <v>81</v>
       </c>
       <c r="F6" s="6"/>
@@ -3211,7 +3364,7 @@
       <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="40" t="s">
         <v>79</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -3235,7 +3388,7 @@
       <c r="D21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="6" t="s">
         <v>40</v>
       </c>
@@ -3257,7 +3410,7 @@
       <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="6" t="s">
         <v>40</v>
       </c>
@@ -3316,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="390">
+    <row r="25" spans="2:10" ht="405">
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -3328,6 +3481,9 @@
         <v>70</v>
       </c>
       <c r="F25" s="6"/>
+      <c r="G25" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="H25" s="4">
         <v>1</v>
       </c>
@@ -3357,16 +3513,16 @@
     </row>
     <row r="27" spans="2:10" ht="15.75" customHeight="1">
       <c r="B27" s="1"/>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="2:10" ht="409.5">
       <c r="B28" s="1">

--- a/Информатика готовность Глеба.xlsx
+++ b/Информатика готовность Глеба.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C3A385-C449-475E-881D-A44998883F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976653F6-08D6-4848-AC04-D84878C39AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-7515" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Моя готовность 04.09.2024" sheetId="1" r:id="rId1"/>
@@ -1388,63 +1388,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># Принцип перевода из большей C.C. в меньшую
-# kompege 6788
-# Перебор x от больших к меньшим
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for x in range(67, 0, -1): # Возможные знач. х в 68 С.С. - от 0 до 67 вкл.
-    num1 = 5 + x * 68 + 3 * 68**2 + 2 * 68**3 + 68**4
-    num2 = 3 + 3*68   + 2 * 68**2 + x * 68**3 + 68**4
-    if (num1 + num2) % 12 == 0:
-        print( (num1 + num2) // 12) # 5321454
-        break
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-# kompege 6846
-# При работе с числами в больших С.С. расписывать
-# каждый разряд числа в степени СС
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for x in range(98):
-    num1 = 5*98**0 + 4*98**1 + x*98**2 + 2*98**3 + 1*98**4
-    num2 = 8*123**0 + 9*123**1 + x*123**2 + 1*123**3
-    result = num1 + num2
-    if result%123 == 0:
-        print(result//123) # 792604</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># </t>
     </r>
     <r>
@@ -2146,12 +2089,97 @@
 print(max_seq_len) #501</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># При работе с числами в С.С. превышающих 36 расписывать
+# каждый разряд числа в * СС ** номер разряда (начиная с 0)
+# и суммировать их
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Чтобы не мучиться с правильной установкой range() можно идти по возрастанию и не ставить break
+# Брать в ответ последний результат
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# kompege 6788
+# Перебор x от больших к меньшим
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for x in range(67, -1, -1): # Возможные знач. х в 68 С.С. - от 0 до 67 вкл.
+    num1 = 5 + x * 68 + 3 * 68**2 + 2 * 68**3 + 68**4
+    num2 = 3 + 3*68   + 2 * 68**2 + x * 68**3 + 68**4
+    if (num1 + num2) % 12 == 0:
+        print( (num1 + num2) // 12) # 5321454
+        break
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# kompege 6846
+# Если числа в разных С.С. то цикл перебирает меньшую из них
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for x in range(97):
+    num1 = 5*98**0 + 4*98**1 + x*98**2 + 2*98**3 + 1*98**4
+    num2 = 8*123**0 + 9*123**1 + x*123**2 + 1*123**3
+    result = num1 + num2
+    if result%123 == 0:
+        print(result//123) # 792604</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2320,6 +2348,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2625,6 +2662,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2639,9 +2679,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2938,8 +2975,8 @@
   <dimension ref="B1:J998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3075,11 +3112,11 @@
         <v>16</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -3248,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="330">
+    <row r="15" spans="2:10" ht="375">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -3263,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -3303,7 +3340,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="23"/>
@@ -3364,8 +3401,8 @@
       <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>79</v>
+      <c r="E20" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>40</v>
@@ -3388,7 +3425,7 @@
       <c r="D21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="6" t="s">
         <v>40</v>
       </c>
@@ -3410,7 +3447,7 @@
       <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="6" t="s">
         <v>40</v>
       </c>
@@ -3458,7 +3495,7 @@
         <v>47</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="23"/>
@@ -3481,8 +3518,8 @@
         <v>70</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="46" t="s">
-        <v>83</v>
+      <c r="G25" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -3500,7 +3537,7 @@
         <v>49</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3513,16 +3550,16 @@
     </row>
     <row r="27" spans="2:10" ht="15.75" customHeight="1">
       <c r="B27" s="1"/>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" spans="2:10" ht="409.5">
       <c r="B28" s="1">
